--- a/biology/Biochimie/Prégnane/Prégnane.xlsx
+++ b/biology/Biochimie/Prégnane/Prégnane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pr%C3%A9gnane</t>
+          <t>Prégnane</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le prégnane est un alcane polycyclique, dérivé du stérane. C'est plus précisément un gonane substitué (10β,13β-diméthyl-17β-éthylgonane), existant en deux stéréoisomères, le 5α-prégnane et le 5β-prégnane qui diffèrent par la façon dont le cycle A s'accroche au cycle B : l'isomère trans (5α) présente l'atome d'hydrogène et le groupe méthyle en C10 de part et d'autre du plan moyen, tandis que l'isomère cis (5β) les a du même côté.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pr%C3%A9gnane</t>
+          <t>Prégnane</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,8 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prégnanes
-Les prégnanes sont des dérivés de stéroïde possédant les carbones 1 à 21. La plupart des prégnanes significatifs se divisent en deux groupes : les prégnènes et les prégnadiènes. Il existe une troisième classe, les prégnatriènes.
+          <t>Prégnanes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les prégnanes sont des dérivés de stéroïde possédant les carbones 1 à 21. La plupart des prégnanes significatifs se divisent en deux groupes : les prégnènes et les prégnadiènes. Il existe une troisième classe, les prégnatriènes.
 </t>
         </is>
       </c>
@@ -527,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pr%C3%A9gnane</t>
+          <t>Prégnane</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +562,9 @@
           <t>Prégnène</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les prégnènes possède une liaison double. On compte parmi eux :
 la cortisone;
@@ -561,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pr%C3%A9gnane</t>
+          <t>Prégnane</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +598,9 @@
           <t>Prégnadiène</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les prégnadiènes possèdent deux liaisons doubles. On compte parmi eux :
 la cyprotérone ;
